--- a/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200331.xlsx
+++ b/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200331.xlsx
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9555" uniqueCount="3317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9558" uniqueCount="3320">
   <si>
     <t>序号</t>
   </si>
@@ -10356,6 +10356,15 @@
   <si>
     <t>塞尔维亚</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增无症状感染人数</t>
+  </si>
+  <si>
+    <t>新增无症状感染治愈人数</t>
+  </si>
+  <si>
+    <t>新增无症状感染死亡人数</t>
   </si>
 </sst>
 </file>
@@ -10366,7 +10375,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10445,6 +10454,13 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -10479,7 +10495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10535,6 +10551,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10809,10 +10829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN42"/>
+  <dimension ref="A1:AQ42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3:Z41"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -10828,34 +10848,36 @@
     <col min="9" max="9" width="11" style="14" customWidth="1"/>
     <col min="10" max="10" width="11.54296875" style="14" customWidth="1"/>
     <col min="11" max="11" width="11.26953125" style="14" customWidth="1"/>
-    <col min="12" max="16" width="12.453125" style="14" customWidth="1"/>
-    <col min="17" max="17" width="8.7265625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="11.90625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="11.26953125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="14.6328125" style="13" customWidth="1"/>
-    <col min="21" max="21" width="67.81640625" style="14" customWidth="1"/>
-    <col min="22" max="22" width="65.08984375" style="12" customWidth="1"/>
-    <col min="23" max="23" width="16.1796875" style="12" customWidth="1"/>
-    <col min="24" max="24" width="16.08984375" style="12" customWidth="1"/>
-    <col min="25" max="25" width="20" style="12" customWidth="1"/>
-    <col min="26" max="26" width="15.1796875" style="12" customWidth="1"/>
-    <col min="27" max="27" width="12.81640625" style="12" customWidth="1"/>
-    <col min="28" max="28" width="19.08984375" style="12" customWidth="1"/>
-    <col min="29" max="29" width="25.453125" style="12" customWidth="1"/>
-    <col min="30" max="30" width="31.90625" style="12" customWidth="1"/>
-    <col min="31" max="31" width="21.90625" style="12" customWidth="1"/>
-    <col min="32" max="32" width="24.453125" style="12" customWidth="1"/>
-    <col min="33" max="33" width="31" style="12" customWidth="1"/>
-    <col min="34" max="34" width="8.90625" style="12" customWidth="1"/>
-    <col min="35" max="36" width="31.90625" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.90625" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.453125" style="12" customWidth="1"/>
-    <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="5.08984375" style="12" customWidth="1"/>
-    <col min="41" max="16384" width="10.90625" style="12"/>
+    <col min="12" max="12" width="12.453125" style="14" customWidth="1"/>
+    <col min="13" max="15" width="12.453125" style="24" customWidth="1"/>
+    <col min="16" max="19" width="12.453125" style="14" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" style="12" customWidth="1"/>
+    <col min="21" max="21" width="11.90625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="11.26953125" style="12" customWidth="1"/>
+    <col min="23" max="23" width="14.6328125" style="13" customWidth="1"/>
+    <col min="24" max="24" width="67.81640625" style="14" customWidth="1"/>
+    <col min="25" max="25" width="65.08984375" style="12" customWidth="1"/>
+    <col min="26" max="26" width="16.1796875" style="12" customWidth="1"/>
+    <col min="27" max="27" width="16.08984375" style="12" customWidth="1"/>
+    <col min="28" max="28" width="20" style="12" customWidth="1"/>
+    <col min="29" max="29" width="15.1796875" style="12" customWidth="1"/>
+    <col min="30" max="30" width="12.81640625" style="12" customWidth="1"/>
+    <col min="31" max="31" width="19.08984375" style="12" customWidth="1"/>
+    <col min="32" max="32" width="25.453125" style="12" customWidth="1"/>
+    <col min="33" max="33" width="31.90625" style="12" customWidth="1"/>
+    <col min="34" max="34" width="21.90625" style="12" customWidth="1"/>
+    <col min="35" max="35" width="24.453125" style="12" customWidth="1"/>
+    <col min="36" max="36" width="31" style="12" customWidth="1"/>
+    <col min="37" max="37" width="8.90625" style="12" customWidth="1"/>
+    <col min="38" max="39" width="31.90625" style="12" customWidth="1"/>
+    <col min="40" max="40" width="21.90625" style="12" customWidth="1"/>
+    <col min="41" max="41" width="24.453125" style="12" customWidth="1"/>
+    <col min="42" max="42" width="31" style="12" customWidth="1"/>
+    <col min="43" max="43" width="5.08984375" style="12" customWidth="1"/>
+    <col min="44" max="16384" width="10.90625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1" ht="16.2">
+    <row r="1" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -10893,91 +10915,100 @@
         <v>11</v>
       </c>
       <c r="M1" s="20" t="s">
+        <v>3317</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>3318</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>3319</v>
+      </c>
+      <c r="P1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="X1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AG1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AH1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AI1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AK1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AL1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AM1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AN1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AO1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AP1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AQ1" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="16.2">
+    <row r="2" spans="1:43" ht="16.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -11004,46 +11035,46 @@
         <v>2</v>
       </c>
       <c r="L2" s="17"/>
-      <c r="M2" s="17">
+      <c r="P2" s="17">
         <v>580</v>
       </c>
-      <c r="N2" s="17">
+      <c r="Q2" s="17">
         <v>55</v>
       </c>
-      <c r="O2" s="17">
+      <c r="R2" s="17">
         <v>418</v>
       </c>
-      <c r="P2" s="19">
+      <c r="S2" s="19">
         <v>8</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="19" t="s">
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="13">
+      <c r="W2" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="13"/>
-      <c r="Z2" s="13">
+      <c r="X2" s="21"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="13"/>
+      <c r="AC2" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AD2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AE2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AF2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-    </row>
-    <row r="3" spans="1:40" ht="16.2">
+      <c r="AG2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+    </row>
+    <row r="3" spans="1:43" ht="16.2">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -11070,38 +11101,41 @@
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="19">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="19">
         <v>14</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
       <c r="R3" s="19"/>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="13">
+      <c r="W3" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U3" s="21"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="13"/>
-      <c r="Z3" s="13">
+      <c r="X3" s="21"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="13"/>
+      <c r="AC3" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AD3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AE3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AF3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD3" s="13"/>
-    </row>
-    <row r="4" spans="1:40" ht="16.2">
+      <c r="AG3" s="13"/>
+    </row>
+    <row r="4" spans="1:43" ht="16.2">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -11128,38 +11162,38 @@
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="19">
+      <c r="P4" s="19">
         <v>53</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="13">
+      <c r="W4" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U4" s="21"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="13"/>
-      <c r="Z4" s="13">
+      <c r="X4" s="21"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="13"/>
+      <c r="AC4" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AD4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AE4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AF4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD4" s="13"/>
-    </row>
-    <row r="5" spans="1:40" ht="16.2">
+      <c r="AG4" s="13"/>
+    </row>
+    <row r="5" spans="1:43" ht="16.2">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -11186,38 +11220,38 @@
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="19">
+      <c r="P5" s="19">
         <v>72</v>
       </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
       <c r="R5" s="19"/>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="13">
+      <c r="W5" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U5" s="21"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="13"/>
-      <c r="Z5" s="13">
+      <c r="X5" s="21"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="13"/>
+      <c r="AC5" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA5" s="12" t="s">
+      <c r="AD5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" s="12" t="s">
+      <c r="AE5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC5" s="12" t="s">
+      <c r="AF5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD5" s="13"/>
-    </row>
-    <row r="6" spans="1:40" ht="16.2">
+      <c r="AG5" s="13"/>
+    </row>
+    <row r="6" spans="1:43" ht="16.2">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -11244,38 +11278,38 @@
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
-      <c r="M6" s="19">
+      <c r="P6" s="19">
         <v>43</v>
       </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="13">
+      <c r="W6" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U6" s="21"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="13"/>
-      <c r="Z6" s="13">
+      <c r="X6" s="21"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="13"/>
+      <c r="AC6" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA6" s="12" t="s">
+      <c r="AD6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB6" s="12" t="s">
+      <c r="AE6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC6" s="12" t="s">
+      <c r="AF6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD6" s="13"/>
-    </row>
-    <row r="7" spans="1:40" ht="16.2">
+      <c r="AG6" s="13"/>
+    </row>
+    <row r="7" spans="1:43" ht="16.2">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -11302,38 +11336,38 @@
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
-      <c r="M7" s="19">
+      <c r="P7" s="19">
         <v>14</v>
       </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
-      <c r="S7" s="19" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T7" s="13">
+      <c r="W7" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U7" s="21"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="13"/>
-      <c r="Z7" s="13">
+      <c r="X7" s="21"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="13"/>
+      <c r="AC7" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA7" s="12" t="s">
+      <c r="AD7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB7" s="12" t="s">
+      <c r="AE7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC7" s="12" t="s">
+      <c r="AF7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD7" s="13"/>
-    </row>
-    <row r="8" spans="1:40" ht="16.2">
+      <c r="AG7" s="13"/>
+    </row>
+    <row r="8" spans="1:43" ht="16.2">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -11360,38 +11394,38 @@
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
-      <c r="M8" s="19">
+      <c r="P8" s="19">
         <v>64</v>
       </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="13">
+      <c r="W8" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U8" s="21"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="13"/>
-      <c r="Z8" s="13">
+      <c r="X8" s="21"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="13"/>
+      <c r="AC8" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA8" s="12" t="s">
+      <c r="AD8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB8" s="12" t="s">
+      <c r="AE8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC8" s="12" t="s">
+      <c r="AF8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD8" s="13"/>
-    </row>
-    <row r="9" spans="1:40" ht="16.2">
+      <c r="AG8" s="13"/>
+    </row>
+    <row r="9" spans="1:43" ht="16.2">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -11418,38 +11452,38 @@
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
-      <c r="M9" s="19">
+      <c r="P9" s="19">
         <v>3</v>
       </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="19" t="s">
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="13">
+      <c r="W9" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U9" s="21"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="13"/>
-      <c r="Z9" s="13">
+      <c r="X9" s="21"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="13"/>
+      <c r="AC9" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA9" s="12" t="s">
+      <c r="AD9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB9" s="12" t="s">
+      <c r="AE9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC9" s="12" t="s">
+      <c r="AF9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD9" s="13"/>
-    </row>
-    <row r="10" spans="1:40" ht="16.2">
+      <c r="AG9" s="13"/>
+    </row>
+    <row r="10" spans="1:43" ht="16.2">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -11476,38 +11510,38 @@
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
-      <c r="M10" s="19">
+      <c r="P10" s="19">
         <v>16</v>
       </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
-      <c r="S10" s="19" t="s">
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T10" s="13">
+      <c r="W10" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U10" s="21"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="13"/>
-      <c r="Z10" s="13">
+      <c r="X10" s="21"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="13"/>
+      <c r="AC10" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA10" s="12" t="s">
+      <c r="AD10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB10" s="12" t="s">
+      <c r="AE10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC10" s="12" t="s">
+      <c r="AF10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD10" s="13"/>
-    </row>
-    <row r="11" spans="1:40" ht="16.2">
+      <c r="AG10" s="13"/>
+    </row>
+    <row r="11" spans="1:43" ht="16.2">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -11534,38 +11568,38 @@
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
-      <c r="M11" s="19">
+      <c r="P11" s="19">
         <v>19</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
-      <c r="S11" s="19" t="s">
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T11" s="13">
+      <c r="W11" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U11" s="21"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="13"/>
-      <c r="Z11" s="13">
+      <c r="X11" s="21"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="13"/>
+      <c r="AC11" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA11" s="12" t="s">
+      <c r="AD11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB11" s="12" t="s">
+      <c r="AE11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC11" s="12" t="s">
+      <c r="AF11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD11" s="13"/>
-    </row>
-    <row r="12" spans="1:40" ht="16.2">
+      <c r="AG11" s="13"/>
+    </row>
+    <row r="12" spans="1:43" ht="16.2">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -11592,38 +11626,38 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
-      <c r="M12" s="19">
+      <c r="P12" s="19">
         <v>10</v>
       </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
-      <c r="S12" s="19" t="s">
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T12" s="13">
+      <c r="W12" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U12" s="21"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="13"/>
-      <c r="Z12" s="13">
+      <c r="X12" s="21"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="13"/>
+      <c r="AC12" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA12" s="12" t="s">
+      <c r="AD12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB12" s="12" t="s">
+      <c r="AE12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC12" s="12" t="s">
+      <c r="AF12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD12" s="13"/>
-    </row>
-    <row r="13" spans="1:40" ht="16.2">
+      <c r="AG12" s="13"/>
+    </row>
+    <row r="13" spans="1:43" ht="16.2">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -11650,38 +11684,38 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
-      <c r="M13" s="19">
+      <c r="P13" s="19">
         <v>29</v>
       </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
-      <c r="S13" s="19" t="s">
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T13" s="13">
+      <c r="W13" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U13" s="21"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="13"/>
-      <c r="Z13" s="13">
+      <c r="X13" s="21"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="13"/>
+      <c r="AC13" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA13" s="12" t="s">
+      <c r="AD13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB13" s="12" t="s">
+      <c r="AE13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC13" s="12" t="s">
+      <c r="AF13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD13" s="13"/>
-    </row>
-    <row r="14" spans="1:40" ht="16.2">
+      <c r="AG13" s="13"/>
+    </row>
+    <row r="14" spans="1:43" ht="16.2">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -11708,38 +11742,38 @@
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
-      <c r="M14" s="19">
+      <c r="P14" s="19">
         <v>39</v>
       </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
-      <c r="S14" s="19" t="s">
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T14" s="13">
+      <c r="W14" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U14" s="21"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="13"/>
-      <c r="Z14" s="13">
+      <c r="X14" s="21"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="13"/>
+      <c r="AC14" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA14" s="12" t="s">
+      <c r="AD14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB14" s="12" t="s">
+      <c r="AE14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC14" s="12" t="s">
+      <c r="AF14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD14" s="13"/>
-    </row>
-    <row r="15" spans="1:40" ht="16.2">
+      <c r="AG14" s="13"/>
+    </row>
+    <row r="15" spans="1:43" ht="16.2">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -11766,38 +11800,38 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
-      <c r="M15" s="19">
+      <c r="P15" s="19">
         <v>7</v>
       </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
-      <c r="S15" s="19" t="s">
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T15" s="13">
+      <c r="W15" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U15" s="21"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="13"/>
-      <c r="Z15" s="13">
+      <c r="X15" s="21"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="13"/>
+      <c r="AC15" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA15" s="12" t="s">
+      <c r="AD15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB15" s="12" t="s">
+      <c r="AE15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC15" s="12" t="s">
+      <c r="AF15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD15" s="13"/>
-    </row>
-    <row r="16" spans="1:40" ht="16.2">
+      <c r="AG15" s="13"/>
+    </row>
+    <row r="16" spans="1:43" ht="16.2">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -11824,36 +11858,36 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
-      <c r="S16" s="19" t="s">
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T16" s="13">
+      <c r="W16" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U16" s="21"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="13"/>
-      <c r="Z16" s="13">
+      <c r="X16" s="21"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="13"/>
+      <c r="AC16" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA16" s="12" t="s">
+      <c r="AD16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB16" s="12" t="s">
+      <c r="AE16" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC16" s="12" t="s">
+      <c r="AF16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD16" s="13"/>
-    </row>
-    <row r="17" spans="1:30" ht="16.2">
+      <c r="AG16" s="13"/>
+    </row>
+    <row r="17" spans="1:33" ht="16.2">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -11880,38 +11914,38 @@
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
-      <c r="M17" s="19">
+      <c r="P17" s="19">
         <v>7</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
-      <c r="S17" s="19" t="s">
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T17" s="13">
+      <c r="W17" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U17" s="21"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="13"/>
-      <c r="Z17" s="13">
+      <c r="X17" s="21"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="13"/>
+      <c r="AC17" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA17" s="12" t="s">
+      <c r="AD17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB17" s="12" t="s">
+      <c r="AE17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC17" s="12" t="s">
+      <c r="AF17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD17" s="13"/>
-    </row>
-    <row r="18" spans="1:30" ht="16.2">
+      <c r="AG17" s="13"/>
+    </row>
+    <row r="18" spans="1:33" ht="16.2">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -11938,38 +11972,38 @@
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
-      <c r="M18" s="19">
+      <c r="P18" s="19">
         <v>1</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
-      <c r="S18" s="19" t="s">
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T18" s="13">
+      <c r="W18" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U18" s="21"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="13"/>
-      <c r="Z18" s="13">
+      <c r="X18" s="21"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="13"/>
+      <c r="AC18" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA18" s="12" t="s">
+      <c r="AD18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB18" s="12" t="s">
+      <c r="AE18" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC18" s="12" t="s">
+      <c r="AF18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD18" s="13"/>
-    </row>
-    <row r="19" spans="1:30" ht="16.2">
+      <c r="AG18" s="13"/>
+    </row>
+    <row r="19" spans="1:33" ht="16.2">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -11996,38 +12030,38 @@
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
-      <c r="M19" s="19">
+      <c r="P19" s="19">
         <v>25</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
-      <c r="S19" s="19" t="s">
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T19" s="13">
+      <c r="W19" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U19" s="21"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="13"/>
-      <c r="Z19" s="13">
+      <c r="X19" s="21"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="13"/>
+      <c r="AC19" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA19" s="12" t="s">
+      <c r="AD19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB19" s="12" t="s">
+      <c r="AE19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC19" s="12" t="s">
+      <c r="AF19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD19" s="13"/>
-    </row>
-    <row r="20" spans="1:30" ht="16.2">
+      <c r="AG19" s="13"/>
+    </row>
+    <row r="20" spans="1:33" ht="16.2">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -12056,38 +12090,38 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="19">
+      <c r="P20" s="19">
         <v>38</v>
       </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19" t="s">
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T20" s="13">
+      <c r="W20" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U20" s="21"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="13"/>
-      <c r="Z20" s="13">
+      <c r="X20" s="21"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="13"/>
+      <c r="AC20" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA20" s="12" t="s">
+      <c r="AD20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB20" s="12" t="s">
+      <c r="AE20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC20" s="12" t="s">
+      <c r="AF20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD20" s="13"/>
-    </row>
-    <row r="21" spans="1:30" ht="16.2">
+      <c r="AG20" s="13"/>
+    </row>
+    <row r="21" spans="1:33" ht="16.2">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -12116,38 +12150,38 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="19"/>
-      <c r="M21" s="19">
+      <c r="P21" s="19">
         <v>31</v>
       </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19" t="s">
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T21" s="13">
+      <c r="W21" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U21" s="21"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="13"/>
-      <c r="Z21" s="13">
+      <c r="X21" s="21"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="13"/>
+      <c r="AC21" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA21" s="12" t="s">
+      <c r="AD21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB21" s="12" t="s">
+      <c r="AE21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC21" s="12" t="s">
+      <c r="AF21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD21" s="13"/>
-    </row>
-    <row r="22" spans="1:30" ht="16.2">
+      <c r="AG21" s="13"/>
+    </row>
+    <row r="22" spans="1:33" ht="16.2">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -12176,38 +12210,38 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="19"/>
-      <c r="M22" s="19">
+      <c r="P22" s="19">
         <v>18</v>
       </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19" t="s">
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T22" s="13">
+      <c r="W22" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U22" s="21"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="13"/>
-      <c r="Z22" s="13">
+      <c r="X22" s="21"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="13"/>
+      <c r="AC22" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA22" s="12" t="s">
+      <c r="AD22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB22" s="12" t="s">
+      <c r="AE22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC22" s="12" t="s">
+      <c r="AF22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD22" s="13"/>
-    </row>
-    <row r="23" spans="1:30" ht="16.2">
+      <c r="AG22" s="13"/>
+    </row>
+    <row r="23" spans="1:33" ht="16.2">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -12236,38 +12270,38 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="19"/>
-      <c r="M23" s="19">
+      <c r="P23" s="19">
         <v>15</v>
       </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19" t="s">
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T23" s="13">
+      <c r="W23" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U23" s="21"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="13"/>
-      <c r="Z23" s="13">
+      <c r="X23" s="21"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="13"/>
+      <c r="AC23" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA23" s="12" t="s">
+      <c r="AD23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB23" s="12" t="s">
+      <c r="AE23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC23" s="12" t="s">
+      <c r="AF23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD23" s="13"/>
-    </row>
-    <row r="24" spans="1:30" ht="16.2">
+      <c r="AG23" s="13"/>
+    </row>
+    <row r="24" spans="1:33" ht="16.2">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -12296,38 +12330,38 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="19">
+      <c r="P24" s="19">
         <v>1</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19" t="s">
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T24" s="13">
+      <c r="W24" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U24" s="21"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="13"/>
-      <c r="Z24" s="13">
+      <c r="X24" s="21"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="13"/>
+      <c r="AC24" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA24" s="12" t="s">
+      <c r="AD24" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB24" s="12" t="s">
+      <c r="AE24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC24" s="12" t="s">
+      <c r="AF24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD24" s="13"/>
-    </row>
-    <row r="25" spans="1:30" ht="16.2">
+      <c r="AG24" s="13"/>
+    </row>
+    <row r="25" spans="1:33" ht="16.2">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -12356,38 +12390,38 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="19"/>
-      <c r="M25" s="19">
+      <c r="P25" s="19">
         <v>2</v>
       </c>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19" t="s">
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T25" s="13">
+      <c r="W25" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U25" s="21"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="13"/>
-      <c r="Z25" s="13">
+      <c r="X25" s="21"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="13"/>
+      <c r="AC25" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA25" s="12" t="s">
+      <c r="AD25" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB25" s="12" t="s">
+      <c r="AE25" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC25" s="12" t="s">
+      <c r="AF25" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD25" s="13"/>
-    </row>
-    <row r="26" spans="1:30" ht="16.2">
+      <c r="AG25" s="13"/>
+    </row>
+    <row r="26" spans="1:33" ht="16.2">
       <c r="A26" s="19">
         <v>25</v>
       </c>
@@ -12416,38 +12450,38 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="19"/>
-      <c r="M26" s="19">
+      <c r="P26" s="19">
         <v>1</v>
       </c>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19" t="s">
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T26" s="13">
+      <c r="W26" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U26" s="21"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="13"/>
-      <c r="Z26" s="13">
+      <c r="X26" s="21"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="13"/>
+      <c r="AC26" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA26" s="12" t="s">
+      <c r="AD26" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB26" s="12" t="s">
+      <c r="AE26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC26" s="12" t="s">
+      <c r="AF26" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD26" s="13"/>
-    </row>
-    <row r="27" spans="1:30" ht="16.2">
+      <c r="AG26" s="13"/>
+    </row>
+    <row r="27" spans="1:33" ht="16.2">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -12476,38 +12510,38 @@
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="19"/>
-      <c r="M27" s="19">
+      <c r="P27" s="19">
         <v>1</v>
       </c>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19" t="s">
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T27" s="13">
+      <c r="W27" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U27" s="21"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="13"/>
-      <c r="Z27" s="13">
+      <c r="X27" s="21"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="13"/>
+      <c r="AC27" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA27" s="12" t="s">
+      <c r="AD27" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB27" s="12" t="s">
+      <c r="AE27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC27" s="12" t="s">
+      <c r="AF27" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD27" s="13"/>
-    </row>
-    <row r="28" spans="1:30" ht="16.2">
+      <c r="AG27" s="13"/>
+    </row>
+    <row r="28" spans="1:33" ht="16.2">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -12536,38 +12570,38 @@
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="19"/>
-      <c r="M28" s="19">
+      <c r="P28" s="19">
         <v>3</v>
       </c>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19" t="s">
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T28" s="13">
+      <c r="W28" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U28" s="21"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="13"/>
-      <c r="Z28" s="13">
+      <c r="X28" s="21"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="13"/>
+      <c r="AC28" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA28" s="12" t="s">
+      <c r="AD28" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB28" s="12" t="s">
+      <c r="AE28" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC28" s="12" t="s">
+      <c r="AF28" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD28" s="13"/>
-    </row>
-    <row r="29" spans="1:30" ht="16.2">
+      <c r="AG28" s="13"/>
+    </row>
+    <row r="29" spans="1:33" ht="16.2">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -12596,38 +12630,38 @@
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="19"/>
-      <c r="M29" s="19">
+      <c r="P29" s="19">
         <v>3</v>
       </c>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19" t="s">
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T29" s="13">
+      <c r="W29" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U29" s="21"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="13"/>
-      <c r="Z29" s="13">
+      <c r="X29" s="21"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="13"/>
+      <c r="AC29" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA29" s="12" t="s">
+      <c r="AD29" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB29" s="12" t="s">
+      <c r="AE29" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC29" s="12" t="s">
+      <c r="AF29" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD29" s="13"/>
-    </row>
-    <row r="30" spans="1:30" ht="16.2">
+      <c r="AG29" s="13"/>
+    </row>
+    <row r="30" spans="1:33" ht="16.2">
       <c r="A30" s="19">
         <v>29</v>
       </c>
@@ -12656,38 +12690,38 @@
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
       <c r="L30" s="19"/>
-      <c r="M30" s="19">
+      <c r="P30" s="19">
         <v>6</v>
       </c>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19" t="s">
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T30" s="13">
+      <c r="W30" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U30" s="21"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="13"/>
-      <c r="Z30" s="13">
+      <c r="X30" s="21"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="13"/>
+      <c r="AC30" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA30" s="12" t="s">
+      <c r="AD30" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB30" s="12" t="s">
+      <c r="AE30" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC30" s="12" t="s">
+      <c r="AF30" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD30" s="13"/>
-    </row>
-    <row r="31" spans="1:30" ht="16.2">
+      <c r="AG30" s="13"/>
+    </row>
+    <row r="31" spans="1:33" ht="16.2">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -12716,38 +12750,38 @@
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
       <c r="L31" s="19"/>
-      <c r="M31" s="19">
+      <c r="P31" s="19">
         <v>1</v>
       </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19" t="s">
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T31" s="13">
+      <c r="W31" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U31" s="21"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="13"/>
-      <c r="Z31" s="13">
+      <c r="X31" s="21"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="13"/>
+      <c r="AC31" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA31" s="12" t="s">
+      <c r="AD31" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB31" s="12" t="s">
+      <c r="AE31" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC31" s="12" t="s">
+      <c r="AF31" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD31" s="13"/>
-    </row>
-    <row r="32" spans="1:30" ht="16.2">
+      <c r="AG31" s="13"/>
+    </row>
+    <row r="32" spans="1:33" ht="16.2">
       <c r="A32" s="19">
         <v>31</v>
       </c>
@@ -12776,38 +12810,38 @@
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
       <c r="L32" s="19"/>
-      <c r="M32" s="19">
+      <c r="P32" s="19">
         <v>1</v>
       </c>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19" t="s">
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T32" s="13">
+      <c r="W32" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U32" s="21"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="13"/>
-      <c r="Z32" s="13">
+      <c r="X32" s="21"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="13"/>
+      <c r="AC32" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA32" s="12" t="s">
+      <c r="AD32" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB32" s="12" t="s">
+      <c r="AE32" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC32" s="12" t="s">
+      <c r="AF32" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD32" s="13"/>
-    </row>
-    <row r="33" spans="1:30" ht="16.2">
+      <c r="AG32" s="13"/>
+    </row>
+    <row r="33" spans="1:33" ht="16.2">
       <c r="A33" s="19">
         <v>31</v>
       </c>
@@ -12836,38 +12870,38 @@
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
       <c r="L33" s="19"/>
-      <c r="M33" s="19">
+      <c r="P33" s="19">
         <v>1</v>
       </c>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19" t="s">
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T33" s="13">
+      <c r="W33" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U33" s="21"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="13"/>
-      <c r="Z33" s="13">
+      <c r="X33" s="21"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="13"/>
+      <c r="AC33" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA33" s="12" t="s">
+      <c r="AD33" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB33" s="12" t="s">
+      <c r="AE33" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC33" s="12" t="s">
+      <c r="AF33" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD33" s="13"/>
-    </row>
-    <row r="34" spans="1:30" ht="16.2">
+      <c r="AG33" s="13"/>
+    </row>
+    <row r="34" spans="1:33" ht="16.2">
       <c r="A34" s="19">
         <v>31</v>
       </c>
@@ -12896,38 +12930,38 @@
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
       <c r="L34" s="19"/>
-      <c r="M34" s="19">
+      <c r="P34" s="19">
         <v>1</v>
       </c>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19" t="s">
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T34" s="13">
+      <c r="W34" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U34" s="21"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="13"/>
-      <c r="Z34" s="13">
+      <c r="X34" s="21"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="13"/>
+      <c r="AC34" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA34" s="12" t="s">
+      <c r="AD34" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB34" s="12" t="s">
+      <c r="AE34" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC34" s="12" t="s">
+      <c r="AF34" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD34" s="13"/>
-    </row>
-    <row r="35" spans="1:30" ht="16.2">
+      <c r="AG34" s="13"/>
+    </row>
+    <row r="35" spans="1:33" ht="16.2">
       <c r="A35" s="19">
         <v>31</v>
       </c>
@@ -12956,38 +12990,38 @@
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
       <c r="L35" s="19"/>
-      <c r="M35" s="19">
+      <c r="P35" s="19">
         <v>1</v>
       </c>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19" t="s">
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T35" s="13">
+      <c r="W35" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U35" s="21"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="13"/>
-      <c r="Z35" s="13">
+      <c r="X35" s="21"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="13"/>
+      <c r="AC35" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA35" s="12" t="s">
+      <c r="AD35" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB35" s="12" t="s">
+      <c r="AE35" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC35" s="12" t="s">
+      <c r="AF35" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD35" s="13"/>
-    </row>
-    <row r="36" spans="1:30" ht="16.2">
+      <c r="AG35" s="13"/>
+    </row>
+    <row r="36" spans="1:33" ht="16.2">
       <c r="A36" s="19">
         <v>31</v>
       </c>
@@ -13016,38 +13050,38 @@
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
       <c r="L36" s="19"/>
-      <c r="M36" s="19">
+      <c r="P36" s="19">
         <v>1</v>
       </c>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19" t="s">
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T36" s="13">
+      <c r="W36" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U36" s="21"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="13"/>
-      <c r="Z36" s="13">
+      <c r="X36" s="21"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="13"/>
+      <c r="AC36" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA36" s="12" t="s">
+      <c r="AD36" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB36" s="12" t="s">
+      <c r="AE36" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC36" s="12" t="s">
+      <c r="AF36" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD36" s="13"/>
-    </row>
-    <row r="37" spans="1:30" ht="16.2">
+      <c r="AG36" s="13"/>
+    </row>
+    <row r="37" spans="1:33" ht="16.2">
       <c r="A37" s="19">
         <v>31</v>
       </c>
@@ -13076,38 +13110,38 @@
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
       <c r="L37" s="19"/>
-      <c r="M37" s="19">
+      <c r="P37" s="19">
         <v>1</v>
       </c>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19" t="s">
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T37" s="13">
+      <c r="W37" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U37" s="21"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="13"/>
-      <c r="Z37" s="13">
+      <c r="X37" s="21"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="13"/>
+      <c r="AC37" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA37" s="12" t="s">
+      <c r="AD37" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB37" s="12" t="s">
+      <c r="AE37" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC37" s="12" t="s">
+      <c r="AF37" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD37" s="13"/>
-    </row>
-    <row r="38" spans="1:30" ht="16.2">
+      <c r="AG37" s="13"/>
+    </row>
+    <row r="38" spans="1:33" ht="16.2">
       <c r="A38" s="19">
         <v>32</v>
       </c>
@@ -13136,38 +13170,38 @@
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
       <c r="L38" s="19"/>
-      <c r="M38" s="19">
+      <c r="P38" s="19">
         <v>2</v>
       </c>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19" t="s">
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T38" s="13">
+      <c r="W38" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U38" s="21"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="13"/>
-      <c r="Z38" s="13">
+      <c r="X38" s="21"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="13"/>
+      <c r="AC38" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA38" s="12" t="s">
+      <c r="AD38" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB38" s="12" t="s">
+      <c r="AE38" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC38" s="12" t="s">
+      <c r="AF38" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD38" s="13"/>
-    </row>
-    <row r="39" spans="1:30" ht="16.2">
+      <c r="AG38" s="13"/>
+    </row>
+    <row r="39" spans="1:33" ht="16.2">
       <c r="A39" s="19">
         <v>32</v>
       </c>
@@ -13196,38 +13230,38 @@
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
       <c r="L39" s="19"/>
-      <c r="M39" s="19">
+      <c r="P39" s="19">
         <v>2</v>
       </c>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19" t="s">
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T39" s="13">
+      <c r="W39" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U39" s="21"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="13"/>
-      <c r="Z39" s="13">
+      <c r="X39" s="21"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="13"/>
+      <c r="AC39" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA39" s="12" t="s">
+      <c r="AD39" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB39" s="12" t="s">
+      <c r="AE39" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC39" s="12" t="s">
+      <c r="AF39" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD39" s="13"/>
-    </row>
-    <row r="40" spans="1:30" ht="16.2">
+      <c r="AG39" s="13"/>
+    </row>
+    <row r="40" spans="1:33" ht="16.2">
       <c r="A40" s="19">
         <v>33</v>
       </c>
@@ -13254,38 +13288,38 @@
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="19"/>
-      <c r="M40" s="19">
+      <c r="P40" s="19">
         <v>164</v>
       </c>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19" t="s">
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T40" s="13">
+      <c r="W40" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U40" s="21"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="13"/>
-      <c r="Z40" s="13">
+      <c r="X40" s="21"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="13"/>
+      <c r="AC40" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA40" s="12" t="s">
+      <c r="AD40" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB40" s="12" t="s">
+      <c r="AE40" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC40" s="12" t="s">
+      <c r="AF40" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD40" s="13"/>
-    </row>
-    <row r="41" spans="1:30" ht="16.2">
+      <c r="AG40" s="13"/>
+    </row>
+    <row r="41" spans="1:33" ht="16.2">
       <c r="A41" s="19">
         <v>34</v>
       </c>
@@ -13314,42 +13348,42 @@
         <v>2</v>
       </c>
       <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="17">
+      <c r="P41" s="19"/>
+      <c r="Q41" s="17">
         <v>55</v>
       </c>
-      <c r="O41" s="17">
+      <c r="R41" s="17">
         <v>418</v>
       </c>
-      <c r="P41" s="19">
+      <c r="S41" s="19">
         <v>8</v>
       </c>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19" t="s">
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T41" s="13">
+      <c r="W41" s="13">
         <v>43922.392361111109</v>
       </c>
-      <c r="U41" s="21"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="13"/>
-      <c r="Z41" s="13">
+      <c r="X41" s="21"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="13"/>
+      <c r="AC41" s="13">
         <v>43922.409722222219</v>
       </c>
-      <c r="AA41" s="12" t="s">
+      <c r="AD41" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB41" s="12" t="s">
+      <c r="AE41" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AC41" s="12" t="s">
+      <c r="AF41" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD41" s="13"/>
-    </row>
-    <row r="42" spans="1:30" ht="16.2">
+      <c r="AG41" s="13"/>
+    </row>
+    <row r="42" spans="1:33" ht="16.2">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="18"/>
@@ -13362,35 +13396,35 @@
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
       <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
       <c r="S42" s="19"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="13"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="22"/>
       <c r="Z42" s="13"/>
-      <c r="AD42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AG42" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA49 AE49 AK49 AA54:AA1048576 AE54:AE1048576 AK54:AK1048576 AA2:AA42 AE2:AE42 AK2:AK42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD49 AH49 AN49 AD54:AD1048576 AH54:AH1048576 AN54:AN1048576 AD2:AD42 AH2:AH42 AN2:AN42">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H49 H54:H1048576">
       <formula1>INDIRECT($G49)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC49 AC54:AC1048576 AC2:AC42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF49 AF54:AF1048576 AF2:AF42">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:R49 I54:R1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P54:U1048576 I54:L1048576 I49:L49 P49:U49">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG49 AM49 AG54:AG1048576 AM54:AM1048576 AG2:AG42 AM2:AM42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ49 AP49 AJ54:AJ1048576 AP54:AP1048576 AJ2:AJ42 AP2:AP42">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G49 G54:G1048576">
